--- a/namedic.xlsx
+++ b/namedic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\AI_works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4055A69-F390-4FCA-9DCA-17F65B22835C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA091B1-7962-420D-AEA6-D237DDD968CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>汪李鑫</t>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fragments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,5619 +365,5635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B701"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A644" workbookViewId="0">
-      <selection activeCell="W686" sqref="W686"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B110">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B111">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B112">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B117">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B118">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B119">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B120">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B121">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B123">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B124">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B125">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B126">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B127">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B134">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137">
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="B137">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138">
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139">
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140">
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="B140">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141">
         <v>139</v>
       </c>
-      <c r="B140">
+      <c r="B141">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="B142">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143">
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="B143">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144">
         <v>142</v>
       </c>
-      <c r="B143">
+      <c r="B144">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145">
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="B145">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146">
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="B146">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147">
         <v>145</v>
       </c>
-      <c r="B146">
+      <c r="B147">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148">
         <v>146</v>
       </c>
-      <c r="B147">
+      <c r="B148">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149">
         <v>147</v>
       </c>
-      <c r="B148">
+      <c r="B149">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150">
         <v>148</v>
       </c>
-      <c r="B149">
+      <c r="B150">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151">
         <v>149</v>
       </c>
-      <c r="B150">
+      <c r="B151">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152">
         <v>150</v>
       </c>
-      <c r="B151">
+      <c r="B152">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153">
         <v>151</v>
       </c>
-      <c r="B152">
+      <c r="B153">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154">
         <v>152</v>
       </c>
-      <c r="B153">
+      <c r="B154">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155">
         <v>153</v>
       </c>
-      <c r="B154">
+      <c r="B155">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156">
         <v>154</v>
       </c>
-      <c r="B155">
+      <c r="B156">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157">
         <v>155</v>
       </c>
-      <c r="B156">
+      <c r="B157">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158">
         <v>156</v>
       </c>
-      <c r="B157">
+      <c r="B158">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159">
         <v>157</v>
       </c>
-      <c r="B158">
+      <c r="B159">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160">
         <v>158</v>
       </c>
-      <c r="B159">
+      <c r="B160">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161">
         <v>159</v>
       </c>
-      <c r="B160">
+      <c r="B161">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162">
         <v>160</v>
       </c>
-      <c r="B161">
+      <c r="B162">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163">
         <v>161</v>
       </c>
-      <c r="B162">
+      <c r="B163">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164">
         <v>162</v>
       </c>
-      <c r="B163">
+      <c r="B164">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165">
         <v>163</v>
       </c>
-      <c r="B164">
+      <c r="B165">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166">
         <v>164</v>
       </c>
-      <c r="B165">
+      <c r="B166">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167">
         <v>165</v>
       </c>
-      <c r="B166">
+      <c r="B167">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168">
         <v>166</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169">
         <v>167</v>
       </c>
-      <c r="B168">
+      <c r="B169">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170">
         <v>168</v>
       </c>
-      <c r="B169">
+      <c r="B170">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171">
         <v>169</v>
       </c>
-      <c r="B170">
+      <c r="B171">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172">
         <v>170</v>
       </c>
-      <c r="B171">
+      <c r="B172">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173">
         <v>171</v>
       </c>
-      <c r="B172">
+      <c r="B173">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174">
         <v>172</v>
       </c>
-      <c r="B173">
+      <c r="B174">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175">
         <v>173</v>
       </c>
-      <c r="B174">
+      <c r="B175">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176">
         <v>174</v>
       </c>
-      <c r="B175">
+      <c r="B176">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177">
         <v>175</v>
       </c>
-      <c r="B176">
+      <c r="B177">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178">
         <v>176</v>
       </c>
-      <c r="B177">
+      <c r="B178">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179">
         <v>177</v>
       </c>
-      <c r="B178">
+      <c r="B179">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180">
         <v>178</v>
       </c>
-      <c r="B179">
+      <c r="B180">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181">
         <v>179</v>
       </c>
-      <c r="B180">
+      <c r="B181">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182">
         <v>180</v>
       </c>
-      <c r="B181">
+      <c r="B182">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183">
         <v>181</v>
       </c>
-      <c r="B182">
+      <c r="B183">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184">
         <v>182</v>
       </c>
-      <c r="B183">
+      <c r="B184">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185">
         <v>183</v>
       </c>
-      <c r="B184">
+      <c r="B185">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186">
         <v>184</v>
       </c>
-      <c r="B185">
+      <c r="B186">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187">
         <v>185</v>
       </c>
-      <c r="B186">
+      <c r="B187">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188">
         <v>186</v>
       </c>
-      <c r="B187">
+      <c r="B188">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189">
         <v>187</v>
       </c>
-      <c r="B188">
+      <c r="B189">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190">
         <v>188</v>
       </c>
-      <c r="B189">
+      <c r="B190">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191">
         <v>189</v>
       </c>
-      <c r="B190">
+      <c r="B191">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192">
         <v>190</v>
       </c>
-      <c r="B191">
+      <c r="B192">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193">
         <v>191</v>
       </c>
-      <c r="B192">
+      <c r="B193">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194">
         <v>192</v>
       </c>
-      <c r="B193">
+      <c r="B194">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195">
         <v>193</v>
       </c>
-      <c r="B194">
+      <c r="B195">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196">
         <v>194</v>
       </c>
-      <c r="B195">
+      <c r="B196">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197">
         <v>195</v>
       </c>
-      <c r="B196">
+      <c r="B197">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198">
         <v>196</v>
       </c>
-      <c r="B197">
+      <c r="B198">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199">
         <v>197</v>
       </c>
-      <c r="B198">
+      <c r="B199">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200">
         <v>198</v>
       </c>
-      <c r="B199">
+      <c r="B200">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201">
         <v>199</v>
       </c>
-      <c r="B200">
+      <c r="B201">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202">
         <v>200</v>
       </c>
-      <c r="B201">
+      <c r="B202">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203">
         <v>201</v>
       </c>
-      <c r="B202">
+      <c r="B203">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204">
         <v>202</v>
       </c>
-      <c r="B203">
+      <c r="B204">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205">
         <v>203</v>
       </c>
-      <c r="B204">
+      <c r="B205">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206">
         <v>204</v>
       </c>
-      <c r="B205">
+      <c r="B206">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207">
         <v>205</v>
       </c>
-      <c r="B206">
+      <c r="B207">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208">
         <v>206</v>
       </c>
-      <c r="B207">
+      <c r="B208">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209">
         <v>207</v>
       </c>
-      <c r="B208">
+      <c r="B209">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210">
         <v>208</v>
       </c>
-      <c r="B209">
+      <c r="B210">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211">
         <v>209</v>
       </c>
-      <c r="B210">
+      <c r="B211">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212">
         <v>210</v>
       </c>
-      <c r="B211">
+      <c r="B212">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213">
         <v>211</v>
       </c>
-      <c r="B212">
+      <c r="B213">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214">
         <v>212</v>
       </c>
-      <c r="B213">
+      <c r="B214">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215">
         <v>213</v>
       </c>
-      <c r="B214">
+      <c r="B215">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216">
         <v>214</v>
       </c>
-      <c r="B215">
+      <c r="B216">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217">
         <v>215</v>
       </c>
-      <c r="B216">
+      <c r="B217">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218">
         <v>216</v>
       </c>
-      <c r="B217">
+      <c r="B218">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219">
         <v>217</v>
       </c>
-      <c r="B218">
+      <c r="B219">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220">
         <v>218</v>
       </c>
-      <c r="B219">
+      <c r="B220">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221">
         <v>219</v>
       </c>
-      <c r="B220">
+      <c r="B221">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222">
         <v>220</v>
       </c>
-      <c r="B221">
+      <c r="B222">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223">
         <v>221</v>
       </c>
-      <c r="B222">
+      <c r="B223">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224">
         <v>222</v>
       </c>
-      <c r="B223">
+      <c r="B224">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225">
         <v>223</v>
       </c>
-      <c r="B224">
+      <c r="B225">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226">
         <v>224</v>
       </c>
-      <c r="B225">
+      <c r="B226">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A227">
         <v>225</v>
       </c>
-      <c r="B226">
+      <c r="B227">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228">
         <v>226</v>
       </c>
-      <c r="B227">
+      <c r="B228">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229">
         <v>227</v>
       </c>
-      <c r="B228">
+      <c r="B229">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230">
         <v>228</v>
       </c>
-      <c r="B229">
+      <c r="B230">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A231">
         <v>229</v>
       </c>
-      <c r="B230">
+      <c r="B231">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A232">
         <v>230</v>
       </c>
-      <c r="B231">
+      <c r="B232">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233">
         <v>231</v>
       </c>
-      <c r="B232">
+      <c r="B233">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234">
         <v>232</v>
       </c>
-      <c r="B233">
+      <c r="B234">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A235">
         <v>233</v>
       </c>
-      <c r="B234">
+      <c r="B235">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A236">
         <v>234</v>
       </c>
-      <c r="B235">
+      <c r="B236">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A237">
         <v>235</v>
       </c>
-      <c r="B236">
+      <c r="B237">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A238">
         <v>236</v>
       </c>
-      <c r="B237">
+      <c r="B238">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A239">
         <v>237</v>
       </c>
-      <c r="B238">
+      <c r="B239">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A240">
         <v>238</v>
       </c>
-      <c r="B239">
+      <c r="B240">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241">
         <v>239</v>
       </c>
-      <c r="B240">
+      <c r="B241">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A242">
         <v>240</v>
       </c>
-      <c r="B241">
+      <c r="B242">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A243">
         <v>241</v>
       </c>
-      <c r="B242">
+      <c r="B243">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A244">
         <v>242</v>
       </c>
-      <c r="B243">
+      <c r="B244">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A245">
         <v>243</v>
       </c>
-      <c r="B244">
+      <c r="B245">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A246">
         <v>244</v>
       </c>
-      <c r="B245">
+      <c r="B246">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A247">
         <v>245</v>
       </c>
-      <c r="B246">
+      <c r="B247">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A248">
         <v>246</v>
       </c>
-      <c r="B247">
+      <c r="B248">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A249">
         <v>247</v>
       </c>
-      <c r="B248">
+      <c r="B249">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A250">
         <v>248</v>
       </c>
-      <c r="B249">
+      <c r="B250">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A251">
         <v>249</v>
       </c>
-      <c r="B250">
+      <c r="B251">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A252">
         <v>250</v>
       </c>
-      <c r="B251">
+      <c r="B252">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A253">
         <v>251</v>
       </c>
-      <c r="B252">
+      <c r="B253">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A254">
         <v>252</v>
       </c>
-      <c r="B253">
+      <c r="B254">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A255">
         <v>253</v>
       </c>
-      <c r="B254">
+      <c r="B255">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A256">
         <v>254</v>
       </c>
-      <c r="B255">
+      <c r="B256">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A257">
         <v>255</v>
       </c>
-      <c r="B256">
+      <c r="B257">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A258">
         <v>256</v>
       </c>
-      <c r="B257">
+      <c r="B258">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A259">
         <v>257</v>
       </c>
-      <c r="B258">
+      <c r="B259">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A260">
         <v>258</v>
       </c>
-      <c r="B259">
+      <c r="B260">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A261">
         <v>259</v>
       </c>
-      <c r="B260">
+      <c r="B261">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A262">
         <v>260</v>
       </c>
-      <c r="B261">
+      <c r="B262">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A263">
         <v>261</v>
       </c>
-      <c r="B262">
+      <c r="B263">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A264">
         <v>262</v>
       </c>
-      <c r="B263">
+      <c r="B264">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A265">
         <v>263</v>
       </c>
-      <c r="B264">
+      <c r="B265">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A266">
         <v>264</v>
       </c>
-      <c r="B265">
+      <c r="B266">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A267">
         <v>265</v>
       </c>
-      <c r="B266">
+      <c r="B267">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A268">
         <v>266</v>
       </c>
-      <c r="B267">
+      <c r="B268">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A269">
         <v>267</v>
       </c>
-      <c r="B268">
+      <c r="B269">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A270">
         <v>268</v>
       </c>
-      <c r="B269">
+      <c r="B270">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A271">
         <v>269</v>
       </c>
-      <c r="B270">
+      <c r="B271">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A272">
         <v>270</v>
       </c>
-      <c r="B271">
+      <c r="B272">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A273">
         <v>271</v>
       </c>
-      <c r="B272">
+      <c r="B273">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A274">
         <v>272</v>
       </c>
-      <c r="B273">
+      <c r="B274">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A275">
         <v>273</v>
       </c>
-      <c r="B274">
+      <c r="B275">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A276">
         <v>274</v>
       </c>
-      <c r="B275">
+      <c r="B276">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A277">
         <v>275</v>
       </c>
-      <c r="B276">
+      <c r="B277">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A278">
         <v>276</v>
       </c>
-      <c r="B277">
+      <c r="B278">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A279">
         <v>277</v>
       </c>
-      <c r="B278">
+      <c r="B279">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A280">
         <v>278</v>
       </c>
-      <c r="B279">
+      <c r="B280">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A281">
         <v>279</v>
       </c>
-      <c r="B280">
+      <c r="B281">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A282">
         <v>280</v>
       </c>
-      <c r="B281">
+      <c r="B282">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A283">
         <v>281</v>
       </c>
-      <c r="B282">
+      <c r="B283">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A284">
         <v>282</v>
       </c>
-      <c r="B283">
+      <c r="B284">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A285">
         <v>283</v>
       </c>
-      <c r="B284">
+      <c r="B285">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A286">
         <v>284</v>
       </c>
-      <c r="B285">
+      <c r="B286">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A287">
         <v>285</v>
       </c>
-      <c r="B286">
+      <c r="B287">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A288">
         <v>286</v>
       </c>
-      <c r="B287">
+      <c r="B288">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A289">
         <v>287</v>
       </c>
-      <c r="B288">
+      <c r="B289">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A290">
         <v>288</v>
       </c>
-      <c r="B289">
+      <c r="B290">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A291">
         <v>289</v>
       </c>
-      <c r="B290">
+      <c r="B291">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A292">
         <v>290</v>
       </c>
-      <c r="B291">
+      <c r="B292">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A293">
         <v>291</v>
       </c>
-      <c r="B292">
+      <c r="B293">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A294">
         <v>292</v>
       </c>
-      <c r="B293">
+      <c r="B294">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A295">
         <v>293</v>
       </c>
-      <c r="B294">
+      <c r="B295">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A296">
         <v>294</v>
       </c>
-      <c r="B295">
+      <c r="B296">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A297">
         <v>295</v>
       </c>
-      <c r="B296">
+      <c r="B297">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A298">
         <v>296</v>
       </c>
-      <c r="B297">
+      <c r="B298">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A299">
         <v>297</v>
       </c>
-      <c r="B298">
+      <c r="B299">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A300">
         <v>298</v>
       </c>
-      <c r="B299">
+      <c r="B300">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A301">
         <v>299</v>
       </c>
-      <c r="B300">
+      <c r="B301">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A302">
         <v>300</v>
       </c>
-      <c r="B301">
+      <c r="B302">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A303">
         <v>301</v>
       </c>
-      <c r="B302">
+      <c r="B303">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A304">
         <v>302</v>
       </c>
-      <c r="B303">
+      <c r="B304">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A305">
         <v>303</v>
       </c>
-      <c r="B304">
+      <c r="B305">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A306">
         <v>304</v>
       </c>
-      <c r="B305">
+      <c r="B306">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A307">
         <v>305</v>
       </c>
-      <c r="B306">
+      <c r="B307">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A308">
         <v>306</v>
       </c>
-      <c r="B307">
+      <c r="B308">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A309">
         <v>307</v>
       </c>
-      <c r="B308">
+      <c r="B309">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A310">
         <v>308</v>
       </c>
-      <c r="B309">
+      <c r="B310">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A311">
         <v>309</v>
       </c>
-      <c r="B310">
+      <c r="B311">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A312">
         <v>310</v>
       </c>
-      <c r="B311">
+      <c r="B312">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A313">
         <v>311</v>
       </c>
-      <c r="B312">
+      <c r="B313">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A314">
         <v>312</v>
       </c>
-      <c r="B313">
+      <c r="B314">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A315">
         <v>313</v>
       </c>
-      <c r="B314">
+      <c r="B315">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A316">
         <v>314</v>
       </c>
-      <c r="B315">
+      <c r="B316">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A317">
         <v>315</v>
       </c>
-      <c r="B316">
+      <c r="B317">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A318">
         <v>316</v>
       </c>
-      <c r="B317">
+      <c r="B318">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A319">
         <v>317</v>
       </c>
-      <c r="B318">
+      <c r="B319">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A320">
         <v>318</v>
       </c>
-      <c r="B319">
+      <c r="B320">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A321">
         <v>319</v>
       </c>
-      <c r="B320">
+      <c r="B321">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A322">
         <v>320</v>
       </c>
-      <c r="B321">
+      <c r="B322">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A323">
         <v>321</v>
       </c>
-      <c r="B322">
+      <c r="B323">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A324">
         <v>322</v>
       </c>
-      <c r="B323">
+      <c r="B324">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A325">
         <v>323</v>
       </c>
-      <c r="B324">
+      <c r="B325">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A326">
         <v>324</v>
       </c>
-      <c r="B325">
+      <c r="B326">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A327">
         <v>325</v>
       </c>
-      <c r="B326">
+      <c r="B327">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A328">
         <v>326</v>
       </c>
-      <c r="B327">
+      <c r="B328">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A329">
         <v>327</v>
       </c>
-      <c r="B328">
+      <c r="B329">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A330">
         <v>328</v>
       </c>
-      <c r="B329">
+      <c r="B330">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A331">
         <v>329</v>
       </c>
-      <c r="B330">
+      <c r="B331">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A332">
         <v>330</v>
       </c>
-      <c r="B331">
+      <c r="B332">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A333">
         <v>331</v>
       </c>
-      <c r="B332">
+      <c r="B333">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A334">
         <v>332</v>
       </c>
-      <c r="B333">
+      <c r="B334">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A335">
         <v>333</v>
       </c>
-      <c r="B334">
+      <c r="B335">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A336">
         <v>334</v>
       </c>
-      <c r="B335">
+      <c r="B336">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A337">
         <v>335</v>
       </c>
-      <c r="B336">
+      <c r="B337">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A338">
         <v>336</v>
       </c>
-      <c r="B337">
+      <c r="B338">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A339">
         <v>337</v>
       </c>
-      <c r="B338">
+      <c r="B339">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A340">
         <v>338</v>
       </c>
-      <c r="B339">
+      <c r="B340">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A341">
         <v>339</v>
       </c>
-      <c r="B340">
+      <c r="B341">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A342">
         <v>340</v>
       </c>
-      <c r="B341">
+      <c r="B342">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A343">
         <v>341</v>
       </c>
-      <c r="B342">
+      <c r="B343">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A344">
         <v>342</v>
       </c>
-      <c r="B343">
+      <c r="B344">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A345">
         <v>343</v>
       </c>
-      <c r="B344">
+      <c r="B345">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A346">
         <v>344</v>
       </c>
-      <c r="B345">
+      <c r="B346">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A347">
         <v>345</v>
       </c>
-      <c r="B346">
+      <c r="B347">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A348">
         <v>346</v>
       </c>
-      <c r="B347">
+      <c r="B348">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A349">
         <v>347</v>
       </c>
-      <c r="B348">
+      <c r="B349">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A350">
         <v>348</v>
       </c>
-      <c r="B349">
+      <c r="B350">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A351">
         <v>349</v>
       </c>
-      <c r="B350">
+      <c r="B351">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A352">
         <v>350</v>
       </c>
-      <c r="B351">
+      <c r="B352">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A353">
         <v>351</v>
       </c>
-      <c r="B352">
+      <c r="B353">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A354">
         <v>352</v>
       </c>
-      <c r="B353">
+      <c r="B354">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A355">
         <v>353</v>
       </c>
-      <c r="B354">
+      <c r="B355">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A356">
         <v>354</v>
       </c>
-      <c r="B355">
+      <c r="B356">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A357">
         <v>355</v>
       </c>
-      <c r="B356">
+      <c r="B357">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A358">
         <v>356</v>
       </c>
-      <c r="B357">
+      <c r="B358">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A359">
         <v>357</v>
       </c>
-      <c r="B358">
+      <c r="B359">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A360">
         <v>358</v>
       </c>
-      <c r="B359">
+      <c r="B360">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A361">
         <v>359</v>
       </c>
-      <c r="B360">
+      <c r="B361">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A362">
         <v>360</v>
       </c>
-      <c r="B361">
+      <c r="B362">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A363">
         <v>361</v>
       </c>
-      <c r="B362">
+      <c r="B363">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A364">
         <v>362</v>
       </c>
-      <c r="B363">
+      <c r="B364">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A365">
         <v>363</v>
       </c>
-      <c r="B364">
+      <c r="B365">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A366">
         <v>364</v>
       </c>
-      <c r="B365">
+      <c r="B366">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A367">
         <v>365</v>
       </c>
-      <c r="B366">
+      <c r="B367">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A368">
         <v>366</v>
       </c>
-      <c r="B367">
+      <c r="B368">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A369">
         <v>367</v>
       </c>
-      <c r="B368">
+      <c r="B369">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A370">
         <v>368</v>
       </c>
-      <c r="B369">
+      <c r="B370">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A371">
         <v>369</v>
       </c>
-      <c r="B370">
+      <c r="B371">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A372">
         <v>370</v>
       </c>
-      <c r="B371">
+      <c r="B372">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A372">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A373">
         <v>371</v>
       </c>
-      <c r="B372">
+      <c r="B373">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A373">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A374">
         <v>372</v>
       </c>
-      <c r="B373">
+      <c r="B374">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A375">
         <v>373</v>
       </c>
-      <c r="B374">
+      <c r="B375">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A376">
         <v>374</v>
       </c>
-      <c r="B375">
+      <c r="B376">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A376">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A377">
         <v>375</v>
       </c>
-      <c r="B376">
+      <c r="B377">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A377">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A378">
         <v>376</v>
       </c>
-      <c r="B377">
+      <c r="B378">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A378">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A379">
         <v>377</v>
       </c>
-      <c r="B378">
+      <c r="B379">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A380">
         <v>378</v>
       </c>
-      <c r="B379">
+      <c r="B380">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A381">
         <v>379</v>
       </c>
-      <c r="B380">
+      <c r="B381">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A382">
         <v>380</v>
       </c>
-      <c r="B381">
+      <c r="B382">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A383">
         <v>381</v>
       </c>
-      <c r="B382">
+      <c r="B383">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A383">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A384">
         <v>382</v>
       </c>
-      <c r="B383">
+      <c r="B384">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A385">
         <v>383</v>
       </c>
-      <c r="B384">
+      <c r="B385">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A386">
         <v>384</v>
       </c>
-      <c r="B385">
+      <c r="B386">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A387">
         <v>385</v>
       </c>
-      <c r="B386">
+      <c r="B387">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A388">
         <v>386</v>
       </c>
-      <c r="B387">
+      <c r="B388">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A389">
         <v>387</v>
       </c>
-      <c r="B388">
+      <c r="B389">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A390">
         <v>388</v>
       </c>
-      <c r="B389">
+      <c r="B390">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A391">
         <v>389</v>
       </c>
-      <c r="B390">
+      <c r="B391">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A392">
         <v>390</v>
       </c>
-      <c r="B391">
+      <c r="B392">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A393">
         <v>391</v>
       </c>
-      <c r="B392">
+      <c r="B393">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A394">
         <v>392</v>
       </c>
-      <c r="B393">
+      <c r="B394">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A395">
         <v>393</v>
       </c>
-      <c r="B394">
+      <c r="B395">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A396">
         <v>394</v>
       </c>
-      <c r="B395">
+      <c r="B396">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A397">
         <v>395</v>
       </c>
-      <c r="B396">
+      <c r="B397">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A398">
         <v>396</v>
       </c>
-      <c r="B397">
+      <c r="B398">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A399">
         <v>397</v>
       </c>
-      <c r="B398">
+      <c r="B399">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A400">
         <v>398</v>
       </c>
-      <c r="B399">
+      <c r="B400">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A401">
         <v>399</v>
       </c>
-      <c r="B400">
+      <c r="B401">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A402">
         <v>400</v>
       </c>
-      <c r="B401">
+      <c r="B402">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A403">
         <v>401</v>
       </c>
-      <c r="B402">
+      <c r="B403">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A404">
         <v>402</v>
       </c>
-      <c r="B403">
+      <c r="B404">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A405">
         <v>403</v>
       </c>
-      <c r="B404">
+      <c r="B405">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A406">
         <v>404</v>
       </c>
-      <c r="B405">
+      <c r="B406">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A407">
         <v>405</v>
       </c>
-      <c r="B406">
+      <c r="B407">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A408">
         <v>406</v>
       </c>
-      <c r="B407">
+      <c r="B408">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A409">
         <v>407</v>
       </c>
-      <c r="B408">
+      <c r="B409">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A410">
         <v>408</v>
       </c>
-      <c r="B409">
+      <c r="B410">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A411">
         <v>409</v>
       </c>
-      <c r="B410">
+      <c r="B411">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A412">
         <v>410</v>
       </c>
-      <c r="B411">
+      <c r="B412">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A413">
         <v>411</v>
       </c>
-      <c r="B412">
+      <c r="B413">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A414">
         <v>412</v>
       </c>
-      <c r="B413">
+      <c r="B414">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A415">
         <v>413</v>
       </c>
-      <c r="B414">
+      <c r="B415">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A416">
         <v>414</v>
       </c>
-      <c r="B415">
+      <c r="B416">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A417">
         <v>415</v>
       </c>
-      <c r="B416">
+      <c r="B417">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A418">
         <v>416</v>
       </c>
-      <c r="B417">
+      <c r="B418">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A419">
         <v>417</v>
       </c>
-      <c r="B418">
+      <c r="B419">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A420">
         <v>418</v>
       </c>
-      <c r="B419">
+      <c r="B420">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A421">
         <v>419</v>
       </c>
-      <c r="B420">
+      <c r="B421">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A422">
         <v>420</v>
       </c>
-      <c r="B421">
+      <c r="B422">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A423">
         <v>421</v>
       </c>
-      <c r="B422">
+      <c r="B423">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A424">
         <v>422</v>
       </c>
-      <c r="B423">
+      <c r="B424">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A425">
         <v>423</v>
       </c>
-      <c r="B424">
+      <c r="B425">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A426">
         <v>424</v>
       </c>
-      <c r="B425">
+      <c r="B426">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A427">
         <v>425</v>
       </c>
-      <c r="B426">
+      <c r="B427">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A428">
         <v>426</v>
       </c>
-      <c r="B427">
+      <c r="B428">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A429">
         <v>427</v>
       </c>
-      <c r="B428">
+      <c r="B429">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A430">
         <v>428</v>
       </c>
-      <c r="B429">
+      <c r="B430">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A431">
         <v>429</v>
       </c>
-      <c r="B430">
+      <c r="B431">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A432">
         <v>430</v>
       </c>
-      <c r="B431">
+      <c r="B432">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A433">
         <v>431</v>
       </c>
-      <c r="B432">
+      <c r="B433">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A434">
         <v>432</v>
       </c>
-      <c r="B433">
+      <c r="B434">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A435">
         <v>433</v>
       </c>
-      <c r="B434">
+      <c r="B435">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A436">
         <v>434</v>
       </c>
-      <c r="B435">
+      <c r="B436">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A437">
         <v>435</v>
       </c>
-      <c r="B436">
+      <c r="B437">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A438">
         <v>436</v>
       </c>
-      <c r="B437">
+      <c r="B438">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A439">
         <v>437</v>
       </c>
-      <c r="B438">
+      <c r="B439">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A440">
         <v>438</v>
       </c>
-      <c r="B439">
+      <c r="B440">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A441">
         <v>439</v>
       </c>
-      <c r="B440">
+      <c r="B441">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A441">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A442">
         <v>440</v>
       </c>
-      <c r="B441">
+      <c r="B442">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A443">
         <v>441</v>
       </c>
-      <c r="B442">
+      <c r="B443">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A444">
         <v>442</v>
       </c>
-      <c r="B443">
+      <c r="B444">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A445">
         <v>443</v>
       </c>
-      <c r="B444">
+      <c r="B445">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A445">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A446">
         <v>444</v>
       </c>
-      <c r="B445">
+      <c r="B446">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A447">
         <v>445</v>
       </c>
-      <c r="B446">
+      <c r="B447">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A447">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A448">
         <v>446</v>
       </c>
-      <c r="B447">
+      <c r="B448">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A448">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A449">
         <v>447</v>
       </c>
-      <c r="B448">
+      <c r="B449">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A450">
         <v>448</v>
       </c>
-      <c r="B449">
+      <c r="B450">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A451">
         <v>449</v>
       </c>
-      <c r="B450">
+      <c r="B451">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A452">
         <v>450</v>
       </c>
-      <c r="B451">
+      <c r="B452">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A453">
         <v>451</v>
       </c>
-      <c r="B452">
+      <c r="B453">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A454">
         <v>452</v>
       </c>
-      <c r="B453">
+      <c r="B454">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A455">
         <v>453</v>
       </c>
-      <c r="B454">
+      <c r="B455">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A455">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A456">
         <v>454</v>
       </c>
-      <c r="B455">
+      <c r="B456">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A457">
         <v>455</v>
       </c>
-      <c r="B456">
+      <c r="B457">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A458">
         <v>456</v>
       </c>
-      <c r="B457">
+      <c r="B458">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A459">
         <v>457</v>
       </c>
-      <c r="B458">
+      <c r="B459">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A460">
         <v>458</v>
       </c>
-      <c r="B459">
+      <c r="B460">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A461">
         <v>459</v>
       </c>
-      <c r="B460">
+      <c r="B461">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A462">
         <v>460</v>
       </c>
-      <c r="B461">
+      <c r="B462">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A462">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A463">
         <v>461</v>
       </c>
-      <c r="B462">
+      <c r="B463">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A464">
         <v>462</v>
       </c>
-      <c r="B463">
+      <c r="B464">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A465">
         <v>463</v>
       </c>
-      <c r="B464">
+      <c r="B465">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A465">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A466">
         <v>464</v>
       </c>
-      <c r="B465">
+      <c r="B466">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A466">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A467">
         <v>465</v>
       </c>
-      <c r="B466">
+      <c r="B467">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A467">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A468">
         <v>466</v>
       </c>
-      <c r="B467">
+      <c r="B468">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A469">
         <v>467</v>
       </c>
-      <c r="B468">
+      <c r="B469">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A469">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A470">
         <v>468</v>
       </c>
-      <c r="B469">
+      <c r="B470">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A470">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A471">
         <v>469</v>
       </c>
-      <c r="B470">
+      <c r="B471">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A471">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A472">
         <v>470</v>
       </c>
-      <c r="B471">
+      <c r="B472">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A472">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A473">
         <v>471</v>
       </c>
-      <c r="B472">
+      <c r="B473">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A473">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A474">
         <v>472</v>
       </c>
-      <c r="B473">
+      <c r="B474">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A474">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A475">
         <v>473</v>
       </c>
-      <c r="B474">
+      <c r="B475">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A475">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A476">
         <v>474</v>
       </c>
-      <c r="B475">
+      <c r="B476">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A476">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A477">
         <v>475</v>
       </c>
-      <c r="B476">
+      <c r="B477">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A477">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A478">
         <v>476</v>
       </c>
-      <c r="B477">
+      <c r="B478">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A478">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A479">
         <v>477</v>
       </c>
-      <c r="B478">
+      <c r="B479">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A479">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A480">
         <v>478</v>
       </c>
-      <c r="B479">
+      <c r="B480">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A481">
         <v>479</v>
       </c>
-      <c r="B480">
+      <c r="B481">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A481">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A482">
         <v>480</v>
       </c>
-      <c r="B481">
+      <c r="B482">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A483">
         <v>481</v>
       </c>
-      <c r="B482">
+      <c r="B483">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A484">
         <v>482</v>
       </c>
-      <c r="B483">
+      <c r="B484">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A485">
         <v>483</v>
       </c>
-      <c r="B484">
+      <c r="B485">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A485">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A486">
         <v>484</v>
       </c>
-      <c r="B485">
+      <c r="B486">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A487">
         <v>485</v>
       </c>
-      <c r="B486">
+      <c r="B487">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A487">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A488">
         <v>486</v>
       </c>
-      <c r="B487">
+      <c r="B488">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A488">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A489">
         <v>487</v>
       </c>
-      <c r="B488">
+      <c r="B489">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A489">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A490">
         <v>488</v>
       </c>
-      <c r="B489">
+      <c r="B490">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A490">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A491">
         <v>489</v>
       </c>
-      <c r="B490">
+      <c r="B491">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A491">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A492">
         <v>490</v>
       </c>
-      <c r="B491">
+      <c r="B492">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A492">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A493">
         <v>491</v>
       </c>
-      <c r="B492">
+      <c r="B493">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A493">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A494">
         <v>492</v>
       </c>
-      <c r="B493">
+      <c r="B494">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A494">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A495">
         <v>493</v>
       </c>
-      <c r="B494">
+      <c r="B495">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A495">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A496">
         <v>494</v>
       </c>
-      <c r="B495">
+      <c r="B496">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A496">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A497">
         <v>495</v>
       </c>
-      <c r="B496">
+      <c r="B497">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A497">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A498">
         <v>496</v>
       </c>
-      <c r="B497">
+      <c r="B498">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A498">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A499">
         <v>497</v>
       </c>
-      <c r="B498">
+      <c r="B499">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A499">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A500">
         <v>498</v>
       </c>
-      <c r="B499">
+      <c r="B500">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A500">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A501">
         <v>499</v>
       </c>
-      <c r="B500">
+      <c r="B501">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A501">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A502">
         <v>500</v>
       </c>
-      <c r="B501">
+      <c r="B502">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A502">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A503">
         <v>501</v>
       </c>
-      <c r="B502">
+      <c r="B503">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A503">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A504">
         <v>502</v>
       </c>
-      <c r="B503">
+      <c r="B504">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A504">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A505">
         <v>503</v>
       </c>
-      <c r="B504">
+      <c r="B505">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A505">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A506">
         <v>504</v>
       </c>
-      <c r="B505">
+      <c r="B506">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A506">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A507">
         <v>505</v>
       </c>
-      <c r="B506">
+      <c r="B507">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A507">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A508">
         <v>506</v>
       </c>
-      <c r="B507">
+      <c r="B508">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A508">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A509">
         <v>507</v>
       </c>
-      <c r="B508">
+      <c r="B509">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A509">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A510">
         <v>508</v>
       </c>
-      <c r="B509">
+      <c r="B510">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A510">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A511">
         <v>509</v>
       </c>
-      <c r="B510">
+      <c r="B511">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A511">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A512">
         <v>510</v>
       </c>
-      <c r="B511">
+      <c r="B512">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A512">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A513">
         <v>511</v>
       </c>
-      <c r="B512">
+      <c r="B513">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A513">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A514">
         <v>512</v>
       </c>
-      <c r="B513">
+      <c r="B514">
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A514">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A515">
         <v>513</v>
       </c>
-      <c r="B514">
+      <c r="B515">
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A515">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A516">
         <v>514</v>
       </c>
-      <c r="B515">
+      <c r="B516">
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A516">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A517">
         <v>515</v>
       </c>
-      <c r="B516">
+      <c r="B517">
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A517">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A518">
         <v>516</v>
       </c>
-      <c r="B517">
+      <c r="B518">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A518">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A519">
         <v>517</v>
       </c>
-      <c r="B518">
+      <c r="B519">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A519">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A520">
         <v>518</v>
       </c>
-      <c r="B519">
+      <c r="B520">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A520">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A521">
         <v>519</v>
       </c>
-      <c r="B520">
+      <c r="B521">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A521">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A522">
         <v>520</v>
       </c>
-      <c r="B521">
+      <c r="B522">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A522">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A523">
         <v>521</v>
       </c>
-      <c r="B522">
+      <c r="B523">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A523">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A524">
         <v>522</v>
       </c>
-      <c r="B523">
+      <c r="B524">
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A524">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A525">
         <v>523</v>
       </c>
-      <c r="B524">
+      <c r="B525">
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A525">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A526">
         <v>524</v>
       </c>
-      <c r="B525">
+      <c r="B526">
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A526">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A527">
         <v>525</v>
       </c>
-      <c r="B526">
+      <c r="B527">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A527">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A528">
         <v>526</v>
       </c>
-      <c r="B527">
+      <c r="B528">
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A528">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A529">
         <v>527</v>
       </c>
-      <c r="B528">
+      <c r="B529">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A529">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A530">
         <v>528</v>
       </c>
-      <c r="B529">
+      <c r="B530">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A530">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A531">
         <v>529</v>
       </c>
-      <c r="B530">
+      <c r="B531">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A531">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A532">
         <v>530</v>
       </c>
-      <c r="B531">
+      <c r="B532">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A532">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A533">
         <v>531</v>
       </c>
-      <c r="B532">
+      <c r="B533">
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A533">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A534">
         <v>532</v>
       </c>
-      <c r="B533">
+      <c r="B534">
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A534">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A535">
         <v>533</v>
       </c>
-      <c r="B534">
+      <c r="B535">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A535">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A536">
         <v>534</v>
       </c>
-      <c r="B535">
+      <c r="B536">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A536">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A537">
         <v>535</v>
       </c>
-      <c r="B536">
+      <c r="B537">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A537">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A538">
         <v>536</v>
       </c>
-      <c r="B537">
+      <c r="B538">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A538">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A539">
         <v>537</v>
       </c>
-      <c r="B538">
+      <c r="B539">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A539">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A540">
         <v>538</v>
       </c>
-      <c r="B539">
+      <c r="B540">
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A540">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A541">
         <v>539</v>
       </c>
-      <c r="B540">
+      <c r="B541">
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A542">
         <v>540</v>
       </c>
-      <c r="B541">
+      <c r="B542">
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A542">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A543">
         <v>541</v>
       </c>
-      <c r="B542">
+      <c r="B543">
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A543">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A544">
         <v>542</v>
       </c>
-      <c r="B543">
+      <c r="B544">
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A544">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A545">
         <v>543</v>
       </c>
-      <c r="B544">
+      <c r="B545">
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A545">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A546">
         <v>544</v>
       </c>
-      <c r="B545">
+      <c r="B546">
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A546">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A547">
         <v>545</v>
       </c>
-      <c r="B546">
+      <c r="B547">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A547">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A548">
         <v>546</v>
       </c>
-      <c r="B547">
+      <c r="B548">
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A548">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A549">
         <v>547</v>
       </c>
-      <c r="B548">
+      <c r="B549">
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A549">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A550">
         <v>548</v>
       </c>
-      <c r="B549">
+      <c r="B550">
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A550">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A551">
         <v>549</v>
       </c>
-      <c r="B550">
+      <c r="B551">
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A551">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A552">
         <v>550</v>
       </c>
-      <c r="B551">
+      <c r="B552">
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A552">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A553">
         <v>551</v>
       </c>
-      <c r="B552">
+      <c r="B553">
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A553">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A554">
         <v>552</v>
       </c>
-      <c r="B553">
+      <c r="B554">
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A554">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A555">
         <v>553</v>
       </c>
-      <c r="B554">
+      <c r="B555">
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A555">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A556">
         <v>554</v>
       </c>
-      <c r="B555">
+      <c r="B556">
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A556">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A557">
         <v>555</v>
       </c>
-      <c r="B556">
+      <c r="B557">
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A557">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A558">
         <v>556</v>
       </c>
-      <c r="B557">
+      <c r="B558">
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A558">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A559">
         <v>557</v>
       </c>
-      <c r="B558">
+      <c r="B559">
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A559">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A560">
         <v>558</v>
       </c>
-      <c r="B559">
+      <c r="B560">
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A560">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A561">
         <v>559</v>
       </c>
-      <c r="B560">
+      <c r="B561">
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A561">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A562">
         <v>560</v>
       </c>
-      <c r="B561">
+      <c r="B562">
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A562">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A563">
         <v>561</v>
       </c>
-      <c r="B562">
+      <c r="B563">
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A563">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A564">
         <v>562</v>
       </c>
-      <c r="B563">
+      <c r="B564">
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A564">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A565">
         <v>563</v>
       </c>
-      <c r="B564">
+      <c r="B565">
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A565">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A566">
         <v>564</v>
       </c>
-      <c r="B565">
+      <c r="B566">
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A566">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A567">
         <v>565</v>
       </c>
-      <c r="B566">
+      <c r="B567">
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A567">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A568">
         <v>566</v>
       </c>
-      <c r="B567">
+      <c r="B568">
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A568">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A569">
         <v>567</v>
       </c>
-      <c r="B568">
+      <c r="B569">
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A569">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A570">
         <v>568</v>
       </c>
-      <c r="B569">
+      <c r="B570">
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A570">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A571">
         <v>569</v>
       </c>
-      <c r="B570">
+      <c r="B571">
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A571">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A572">
         <v>570</v>
       </c>
-      <c r="B571">
+      <c r="B572">
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A572">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A573">
         <v>571</v>
       </c>
-      <c r="B572">
+      <c r="B573">
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A573">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A574">
         <v>572</v>
       </c>
-      <c r="B573">
+      <c r="B574">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A574">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A575">
         <v>573</v>
       </c>
-      <c r="B574">
+      <c r="B575">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A575">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A576">
         <v>574</v>
       </c>
-      <c r="B575">
+      <c r="B576">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A576">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A577">
         <v>575</v>
       </c>
-      <c r="B576">
+      <c r="B577">
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A577">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A578">
         <v>576</v>
       </c>
-      <c r="B577">
+      <c r="B578">
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A578">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A579">
         <v>577</v>
       </c>
-      <c r="B578">
+      <c r="B579">
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A579">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A580">
         <v>578</v>
       </c>
-      <c r="B579">
+      <c r="B580">
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A580">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A581">
         <v>579</v>
       </c>
-      <c r="B580">
+      <c r="B581">
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A581">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A582">
         <v>580</v>
       </c>
-      <c r="B581">
+      <c r="B582">
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A582">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A583">
         <v>581</v>
       </c>
-      <c r="B582">
+      <c r="B583">
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A583">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A584">
         <v>582</v>
       </c>
-      <c r="B583">
+      <c r="B584">
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A584">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A585">
         <v>583</v>
       </c>
-      <c r="B584">
+      <c r="B585">
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A585">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A586">
         <v>584</v>
       </c>
-      <c r="B585">
+      <c r="B586">
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A586">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A587">
         <v>585</v>
       </c>
-      <c r="B586">
+      <c r="B587">
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A587">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A588">
         <v>586</v>
       </c>
-      <c r="B587">
+      <c r="B588">
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A588">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A589">
         <v>587</v>
       </c>
-      <c r="B588">
+      <c r="B589">
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A589">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A590">
         <v>588</v>
       </c>
-      <c r="B589">
+      <c r="B590">
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A590">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A591">
         <v>589</v>
       </c>
-      <c r="B590">
+      <c r="B591">
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A591">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A592">
         <v>590</v>
       </c>
-      <c r="B591">
+      <c r="B592">
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A592">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A593">
         <v>591</v>
       </c>
-      <c r="B592">
+      <c r="B593">
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A593">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A594">
         <v>592</v>
       </c>
-      <c r="B593">
+      <c r="B594">
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A594">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A595">
         <v>593</v>
       </c>
-      <c r="B594">
+      <c r="B595">
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A595">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A596">
         <v>594</v>
       </c>
-      <c r="B595">
+      <c r="B596">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A596">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A597">
         <v>595</v>
       </c>
-      <c r="B596">
+      <c r="B597">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A597">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A598">
         <v>596</v>
       </c>
-      <c r="B597">
+      <c r="B598">
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A598">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A599">
         <v>597</v>
       </c>
-      <c r="B598">
+      <c r="B599">
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A599">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A600">
         <v>598</v>
       </c>
-      <c r="B599">
+      <c r="B600">
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A600">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A601">
         <v>599</v>
       </c>
-      <c r="B600">
+      <c r="B601">
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A601">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A602">
         <v>600</v>
       </c>
-      <c r="B601">
+      <c r="B602">
         <v>600</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A602">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A603">
         <v>601</v>
       </c>
-      <c r="B602">
+      <c r="B603">
         <v>601</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A603">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A604">
         <v>602</v>
       </c>
-      <c r="B603">
+      <c r="B604">
         <v>602</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A604">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A605">
         <v>603</v>
       </c>
-      <c r="B604">
+      <c r="B605">
         <v>603</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A605">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A606">
         <v>604</v>
       </c>
-      <c r="B605">
+      <c r="B606">
         <v>604</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A606">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A607">
         <v>605</v>
       </c>
-      <c r="B606">
+      <c r="B607">
         <v>605</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A607">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A608">
         <v>606</v>
       </c>
-      <c r="B607">
+      <c r="B608">
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A608">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A609">
         <v>607</v>
       </c>
-      <c r="B608">
+      <c r="B609">
         <v>607</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A609">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A610">
         <v>608</v>
       </c>
-      <c r="B609">
+      <c r="B610">
         <v>608</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A610">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A611">
         <v>609</v>
       </c>
-      <c r="B610">
+      <c r="B611">
         <v>609</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A611">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A612">
         <v>610</v>
       </c>
-      <c r="B611">
+      <c r="B612">
         <v>610</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A612">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A613">
         <v>611</v>
       </c>
-      <c r="B612">
+      <c r="B613">
         <v>611</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A613">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A614">
         <v>612</v>
       </c>
-      <c r="B613">
+      <c r="B614">
         <v>612</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A614">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A615">
         <v>613</v>
       </c>
-      <c r="B614">
+      <c r="B615">
         <v>613</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A615">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A616">
         <v>614</v>
       </c>
-      <c r="B615">
+      <c r="B616">
         <v>614</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A616">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A617">
         <v>615</v>
       </c>
-      <c r="B616">
+      <c r="B617">
         <v>615</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A617">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A618">
         <v>616</v>
       </c>
-      <c r="B617">
+      <c r="B618">
         <v>616</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A618">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A619">
         <v>617</v>
       </c>
-      <c r="B618">
+      <c r="B619">
         <v>617</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A619">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A620">
         <v>618</v>
       </c>
-      <c r="B619">
+      <c r="B620">
         <v>618</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A620">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A621">
         <v>619</v>
       </c>
-      <c r="B620">
+      <c r="B621">
         <v>619</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A621">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A622">
         <v>620</v>
       </c>
-      <c r="B621">
+      <c r="B622">
         <v>620</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A622">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A623">
         <v>621</v>
       </c>
-      <c r="B622">
+      <c r="B623">
         <v>621</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A623">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A624">
         <v>622</v>
       </c>
-      <c r="B623">
+      <c r="B624">
         <v>622</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A624">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A625">
         <v>623</v>
       </c>
-      <c r="B624">
+      <c r="B625">
         <v>623</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A625">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A626">
         <v>624</v>
       </c>
-      <c r="B625">
+      <c r="B626">
         <v>624</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A626">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A627">
         <v>625</v>
       </c>
-      <c r="B626">
+      <c r="B627">
         <v>625</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A627">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A628">
         <v>626</v>
       </c>
-      <c r="B627">
+      <c r="B628">
         <v>626</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A628">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A629">
         <v>627</v>
       </c>
-      <c r="B628">
+      <c r="B629">
         <v>627</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A629">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A630">
         <v>628</v>
       </c>
-      <c r="B629">
+      <c r="B630">
         <v>628</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A630">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A631">
         <v>629</v>
       </c>
-      <c r="B630">
+      <c r="B631">
         <v>629</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A631">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A632">
         <v>630</v>
       </c>
-      <c r="B631">
+      <c r="B632">
         <v>630</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A632">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A633">
         <v>631</v>
       </c>
-      <c r="B632">
+      <c r="B633">
         <v>631</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A633">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A634">
         <v>632</v>
       </c>
-      <c r="B633">
+      <c r="B634">
         <v>632</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A634">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A635">
         <v>633</v>
       </c>
-      <c r="B634">
+      <c r="B635">
         <v>633</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A635">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A636">
         <v>634</v>
       </c>
-      <c r="B635">
+      <c r="B636">
         <v>634</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A636">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A637">
         <v>635</v>
       </c>
-      <c r="B636">
+      <c r="B637">
         <v>635</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A637">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A638">
         <v>636</v>
       </c>
-      <c r="B637">
+      <c r="B638">
         <v>636</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A638">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A639">
         <v>637</v>
       </c>
-      <c r="B638">
+      <c r="B639">
         <v>637</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A639">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A640">
         <v>638</v>
       </c>
-      <c r="B639">
+      <c r="B640">
         <v>638</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A640">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A641">
         <v>639</v>
       </c>
-      <c r="B640">
+      <c r="B641">
         <v>639</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A641">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A642">
         <v>640</v>
       </c>
-      <c r="B641">
+      <c r="B642">
         <v>640</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A642">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A643">
         <v>641</v>
       </c>
-      <c r="B642">
+      <c r="B643">
         <v>641</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A643">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A644">
         <v>642</v>
       </c>
-      <c r="B643">
+      <c r="B644">
         <v>642</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A644">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A645">
         <v>643</v>
       </c>
-      <c r="B644">
+      <c r="B645">
         <v>643</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A645">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A646">
         <v>644</v>
       </c>
-      <c r="B645">
+      <c r="B646">
         <v>644</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A646">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A647">
         <v>645</v>
       </c>
-      <c r="B646">
+      <c r="B647">
         <v>645</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A647">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A648">
         <v>646</v>
       </c>
-      <c r="B647">
+      <c r="B648">
         <v>646</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A648">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A649">
         <v>647</v>
       </c>
-      <c r="B648">
+      <c r="B649">
         <v>647</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A649">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A650">
         <v>648</v>
       </c>
-      <c r="B649">
+      <c r="B650">
         <v>648</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A650">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A651">
         <v>649</v>
       </c>
-      <c r="B650">
+      <c r="B651">
         <v>649</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A651">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A652">
         <v>650</v>
       </c>
-      <c r="B651">
+      <c r="B652">
         <v>650</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A652">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A653">
         <v>651</v>
       </c>
-      <c r="B652">
+      <c r="B653">
         <v>651</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A653">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A654">
         <v>652</v>
       </c>
-      <c r="B653">
+      <c r="B654">
         <v>652</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A654">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A655">
         <v>653</v>
       </c>
-      <c r="B654">
+      <c r="B655">
         <v>653</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A655">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A656">
         <v>654</v>
       </c>
-      <c r="B655">
+      <c r="B656">
         <v>654</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A656">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A657">
         <v>655</v>
       </c>
-      <c r="B656">
+      <c r="B657">
         <v>655</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A657">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A658">
         <v>656</v>
       </c>
-      <c r="B657">
+      <c r="B658">
         <v>656</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A658">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A659">
         <v>657</v>
       </c>
-      <c r="B658">
+      <c r="B659">
         <v>657</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A659">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A660">
         <v>658</v>
       </c>
-      <c r="B659">
+      <c r="B660">
         <v>658</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A660">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A661">
         <v>659</v>
       </c>
-      <c r="B660">
+      <c r="B661">
         <v>659</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A661">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A662">
         <v>660</v>
       </c>
-      <c r="B661">
+      <c r="B662">
         <v>660</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A662">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A663">
         <v>661</v>
       </c>
-      <c r="B662">
+      <c r="B663">
         <v>661</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A663">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A664">
         <v>662</v>
       </c>
-      <c r="B663">
+      <c r="B664">
         <v>662</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A664">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A665">
         <v>663</v>
       </c>
-      <c r="B664">
+      <c r="B665">
         <v>663</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A665">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A666">
         <v>664</v>
       </c>
-      <c r="B665">
+      <c r="B666">
         <v>664</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A666">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A667">
         <v>665</v>
       </c>
-      <c r="B666">
+      <c r="B667">
         <v>665</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A667">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A668">
         <v>666</v>
       </c>
-      <c r="B667">
+      <c r="B668">
         <v>666</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A668">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A669">
         <v>667</v>
       </c>
-      <c r="B668">
+      <c r="B669">
         <v>667</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A669">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A670">
         <v>668</v>
       </c>
-      <c r="B669">
+      <c r="B670">
         <v>668</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A670">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A671">
         <v>669</v>
       </c>
-      <c r="B670">
+      <c r="B671">
         <v>669</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A671">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A672">
         <v>670</v>
       </c>
-      <c r="B671">
+      <c r="B672">
         <v>670</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A672">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A673">
         <v>671</v>
       </c>
-      <c r="B672">
+      <c r="B673">
         <v>671</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A673">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A674">
         <v>672</v>
       </c>
-      <c r="B673">
+      <c r="B674">
         <v>672</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A674">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A675">
         <v>673</v>
       </c>
-      <c r="B674">
+      <c r="B675">
         <v>673</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A675">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A676">
         <v>674</v>
       </c>
-      <c r="B675">
+      <c r="B676">
         <v>674</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A676">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A677">
         <v>675</v>
       </c>
-      <c r="B676">
+      <c r="B677">
         <v>675</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A677">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A678">
         <v>676</v>
       </c>
-      <c r="B677">
+      <c r="B678">
         <v>676</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A678">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A679">
         <v>677</v>
       </c>
-      <c r="B678">
+      <c r="B679">
         <v>677</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A679">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A680">
         <v>678</v>
       </c>
-      <c r="B679">
+      <c r="B680">
         <v>678</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A680">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A681">
         <v>679</v>
       </c>
-      <c r="B680">
+      <c r="B681">
         <v>679</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A681">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A682">
         <v>680</v>
       </c>
-      <c r="B681">
+      <c r="B682">
         <v>680</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A682">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A683">
         <v>681</v>
       </c>
-      <c r="B682">
+      <c r="B683">
         <v>681</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A683">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A684">
         <v>682</v>
       </c>
-      <c r="B683">
+      <c r="B684">
         <v>682</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A684">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A685">
         <v>683</v>
       </c>
-      <c r="B684">
+      <c r="B685">
         <v>683</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A685">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A686">
         <v>684</v>
       </c>
-      <c r="B685">
+      <c r="B686">
         <v>684</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A686">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A687">
         <v>685</v>
       </c>
-      <c r="B686">
+      <c r="B687">
         <v>685</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A687">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A688">
         <v>686</v>
       </c>
-      <c r="B687">
+      <c r="B688">
         <v>686</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A688">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A689">
         <v>687</v>
       </c>
-      <c r="B688">
+      <c r="B689">
         <v>687</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A689">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A690">
         <v>688</v>
       </c>
-      <c r="B689">
+      <c r="B690">
         <v>688</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A690">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A691">
         <v>689</v>
       </c>
-      <c r="B690">
+      <c r="B691">
         <v>689</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A691">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A692">
         <v>690</v>
       </c>
-      <c r="B691">
+      <c r="B692">
         <v>690</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A692">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A693">
         <v>691</v>
       </c>
-      <c r="B692">
+      <c r="B693">
         <v>691</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A693">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A694">
         <v>692</v>
       </c>
-      <c r="B693">
+      <c r="B694">
         <v>692</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A694">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A695">
         <v>693</v>
       </c>
-      <c r="B694">
+      <c r="B695">
         <v>693</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A695">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A696">
         <v>694</v>
       </c>
-      <c r="B695">
+      <c r="B696">
         <v>694</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A696">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A697">
         <v>695</v>
       </c>
-      <c r="B696">
+      <c r="B697">
         <v>695</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A697">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A698">
         <v>696</v>
       </c>
-      <c r="B697">
+      <c r="B698">
         <v>696</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A698">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A699">
         <v>697</v>
       </c>
-      <c r="B698">
+      <c r="B699">
         <v>697</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A699">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A700">
         <v>698</v>
       </c>
-      <c r="B699">
+      <c r="B700">
         <v>698</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A700">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A701">
         <v>699</v>
       </c>
-      <c r="B700">
+      <c r="B701">
         <v>699</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A701">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A702">
         <v>700</v>
       </c>
-      <c r="B701" t="s">
+      <c r="B702" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A703">
+        <v>701</v>
+      </c>
+      <c r="B703" t="s">
         <v>0</v>
       </c>
     </row>
